--- a/team_specific_matrix/Youngstown St._A.xlsx
+++ b/team_specific_matrix/Youngstown St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.15</v>
+        <v>0.1631205673758865</v>
       </c>
       <c r="C2">
-        <v>0.6583333333333333</v>
+        <v>0.6418439716312057</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01666666666666667</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004166666666666667</v>
+        <v>0.003546099290780142</v>
       </c>
       <c r="P2">
-        <v>0.1</v>
+        <v>0.1028368794326241</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07083333333333333</v>
+        <v>0.07446808510638298</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02976190476190476</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="C3">
-        <v>0.03571428571428571</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02380952380952381</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7857142857142857</v>
+        <v>0.7853403141361257</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.125</v>
+        <v>0.1308900523560209</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.72</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.1929824561403509</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07614213197969544</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01015228426395939</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1065989847715736</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.233502538071066</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03553299492385787</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1269035532994924</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="R6">
-        <v>0.06091370558375635</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="S6">
-        <v>0.350253807106599</v>
+        <v>0.3559322033898305</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07534246575342465</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04794520547945205</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07534246575342465</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1643835616438356</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02054794520547945</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1643835616438356</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="R7">
-        <v>0.136986301369863</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="S7">
-        <v>0.3150684931506849</v>
+        <v>0.3314917127071823</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08785529715762273</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0103359173126615</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05684754521963824</v>
+        <v>0.05947136563876652</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.144702842377261</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01291989664082687</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1627906976744186</v>
+        <v>0.1607929515418502</v>
       </c>
       <c r="R8">
-        <v>0.144702842377261</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="S8">
-        <v>0.3798449612403101</v>
+        <v>0.3854625550660793</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1329479768786127</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03468208092485549</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05780346820809248</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1329479768786127</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01734104046242774</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1907514450867052</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R9">
-        <v>0.1329479768786127</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="S9">
-        <v>0.3005780346820809</v>
+        <v>0.3251231527093596</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09120521172638436</v>
+        <v>0.09211444521981857</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02605863192182411</v>
+        <v>0.02581995812979763</v>
       </c>
       <c r="E10">
-        <v>0.001628664495114007</v>
+        <v>0.001395673412421493</v>
       </c>
       <c r="F10">
-        <v>0.06188925081433225</v>
+        <v>0.0628053035589672</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1425081433224756</v>
+        <v>0.1430565247732031</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01140065146579805</v>
+        <v>0.01325889741800419</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2320846905537459</v>
+        <v>0.2309839497557571</v>
       </c>
       <c r="R10">
-        <v>0.08550488599348534</v>
+        <v>0.08164689462665736</v>
       </c>
       <c r="S10">
-        <v>0.3477198697068404</v>
+        <v>0.3489183531053733</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1282051282051282</v>
+        <v>0.1236363636363636</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1282051282051282</v>
+        <v>0.1236363636363636</v>
       </c>
       <c r="K11">
-        <v>0.2222222222222222</v>
+        <v>0.2145454545454545</v>
       </c>
       <c r="L11">
-        <v>0.5128205128205128</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008547008547008548</v>
+        <v>0.01090909090909091</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7596899224806202</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1395348837209302</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="K12">
-        <v>0.01550387596899225</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="L12">
-        <v>0.05426356589147287</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0310077519379845</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.525</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.375</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02415458937198068</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1207729468599034</v>
+        <v>0.1270491803278689</v>
       </c>
       <c r="I15">
-        <v>0.0821256038647343</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="J15">
-        <v>0.4347826086956522</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="K15">
-        <v>0.0821256038647343</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00966183574879227</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06280193236714976</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1835748792270532</v>
+        <v>0.1926229508196721</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01063829787234043</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1914893617021277</v>
+        <v>0.1898148148148148</v>
       </c>
       <c r="I16">
-        <v>0.101063829787234</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="J16">
-        <v>0.3776595744680851</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="K16">
-        <v>0.101063829787234</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06382978723404255</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1329787234042553</v>
+        <v>0.1435185185185185</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01869158878504673</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1682242990654206</v>
+        <v>0.1646825396825397</v>
       </c>
       <c r="I17">
-        <v>0.07476635514018691</v>
+        <v>0.08531746031746032</v>
       </c>
       <c r="J17">
-        <v>0.455607476635514</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="K17">
-        <v>0.07009345794392523</v>
+        <v>0.08531746031746032</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02102803738317757</v>
+        <v>0.02182539682539682</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="O17">
-        <v>0.05607476635514019</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1355140186915888</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01851851851851852</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.162037037037037</v>
+        <v>0.173728813559322</v>
       </c>
       <c r="I18">
-        <v>0.1203703703703704</v>
+        <v>0.1144067796610169</v>
       </c>
       <c r="J18">
-        <v>0.4212962962962963</v>
+        <v>0.4279661016949153</v>
       </c>
       <c r="K18">
-        <v>0.07870370370370371</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01851851851851852</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05555555555555555</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1228813559322034</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0125968992248062</v>
+        <v>0.01535974130962005</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2131782945736434</v>
+        <v>0.2101859337105901</v>
       </c>
       <c r="I19">
-        <v>0.07751937984496124</v>
+        <v>0.07518189167340339</v>
       </c>
       <c r="J19">
-        <v>0.3817829457364341</v>
+        <v>0.3848019401778496</v>
       </c>
       <c r="K19">
-        <v>0.09883720930232558</v>
+        <v>0.09377526273241714</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02034883720930233</v>
+        <v>0.02021018593371059</v>
       </c>
       <c r="N19">
-        <v>0.0009689922480620155</v>
+        <v>0.0008084074373484236</v>
       </c>
       <c r="O19">
-        <v>0.08817829457364341</v>
+        <v>0.08407437348423606</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1065891472868217</v>
+        <v>0.1156022635408246</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Youngstown St._A.xlsx
+++ b/team_specific_matrix/Youngstown St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1631205673758865</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="C2">
-        <v>0.6418439716312057</v>
+        <v>0.6394557823129252</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01418439716312057</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003546099290780142</v>
+        <v>0.003401360544217687</v>
       </c>
       <c r="P2">
-        <v>0.1028368794326241</v>
+        <v>0.1054421768707483</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07446808510638298</v>
+        <v>0.07482993197278912</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03141361256544502</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C3">
-        <v>0.03141361256544502</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02094240837696335</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7853403141361257</v>
+        <v>0.7828282828282829</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1308900523560209</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07017543859649122</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1929824561403509</v>
+        <v>0.2295081967213115</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08050847457627118</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01271186440677966</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="F6">
-        <v>0.1016949152542373</v>
+        <v>0.09842519685039371</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2457627118644068</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02966101694915254</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1186440677966102</v>
+        <v>0.1141732283464567</v>
       </c>
       <c r="R6">
-        <v>0.05508474576271186</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="S6">
-        <v>0.3559322033898305</v>
+        <v>0.3503937007874016</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0718232044198895</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03867403314917127</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08287292817679558</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1602209944751381</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02209944751381215</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1657458563535912</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="R7">
-        <v>0.1270718232044199</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="S7">
-        <v>0.3314917127071823</v>
+        <v>0.3193717277486911</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08590308370044053</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01101321585903084</v>
+        <v>0.01452282157676349</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05947136563876652</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1541850220264317</v>
+        <v>0.1493775933609958</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.013215859030837</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1607929515418502</v>
+        <v>0.1639004149377593</v>
       </c>
       <c r="R8">
-        <v>0.1299559471365639</v>
+        <v>0.1265560165975104</v>
       </c>
       <c r="S8">
-        <v>0.3854625550660793</v>
+        <v>0.3796680497925311</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1182266009852217</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03448275862068965</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0541871921182266</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1231527093596059</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01477832512315271</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2068965517241379</v>
+        <v>0.2009345794392523</v>
       </c>
       <c r="R9">
-        <v>0.1231527093596059</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="S9">
-        <v>0.3251231527093596</v>
+        <v>0.3271028037383177</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09211444521981857</v>
+        <v>0.09019607843137255</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02581995812979763</v>
+        <v>0.02549019607843137</v>
       </c>
       <c r="E10">
-        <v>0.001395673412421493</v>
+        <v>0.00130718954248366</v>
       </c>
       <c r="F10">
-        <v>0.0628053035589672</v>
+        <v>0.06209150326797386</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1430565247732031</v>
+        <v>0.1431372549019608</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01325889741800419</v>
+        <v>0.01372549019607843</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2309839497557571</v>
+        <v>0.2274509803921569</v>
       </c>
       <c r="R10">
-        <v>0.08164689462665736</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="S10">
-        <v>0.3489183531053733</v>
+        <v>0.3542483660130719</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1236363636363636</v>
+        <v>0.1254355400696864</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1236363636363636</v>
+        <v>0.1254355400696864</v>
       </c>
       <c r="K11">
-        <v>0.2145454545454545</v>
+        <v>0.2160278745644599</v>
       </c>
       <c r="L11">
-        <v>0.5272727272727272</v>
+        <v>0.5226480836236934</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01090909090909091</v>
+        <v>0.01045296167247387</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.782051282051282</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1346153846153846</v>
+        <v>0.1366459627329193</v>
       </c>
       <c r="K12">
-        <v>0.01282051282051282</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="L12">
-        <v>0.04487179487179487</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02564102564102564</v>
+        <v>0.02484472049689441</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.574468085106383</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3404255319148936</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0851063829787234</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02049180327868852</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1270491803278689</v>
+        <v>0.1169811320754717</v>
       </c>
       <c r="I15">
-        <v>0.08196721311475409</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="J15">
-        <v>0.4016393442622951</v>
+        <v>0.4075471698113208</v>
       </c>
       <c r="K15">
-        <v>0.08196721311475409</v>
+        <v>0.07924528301886792</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01229508196721311</v>
+        <v>0.01132075471698113</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08196721311475409</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1926229508196721</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01851851851851852</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1898148148148148</v>
+        <v>0.1822222222222222</v>
       </c>
       <c r="I16">
-        <v>0.1018518518518518</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="J16">
-        <v>0.3611111111111111</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="K16">
-        <v>0.09722222222222222</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02314814814814815</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06481481481481481</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1435185185185185</v>
+        <v>0.1422222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01785714285714286</v>
+        <v>0.01691729323308271</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1646825396825397</v>
+        <v>0.1672932330827068</v>
       </c>
       <c r="I17">
-        <v>0.08531746031746032</v>
+        <v>0.08834586466165413</v>
       </c>
       <c r="J17">
-        <v>0.4464285714285715</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="K17">
-        <v>0.08531746031746032</v>
+        <v>0.08646616541353383</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02182539682539682</v>
+        <v>0.02067669172932331</v>
       </c>
       <c r="N17">
-        <v>0.001984126984126984</v>
+        <v>0.001879699248120301</v>
       </c>
       <c r="O17">
-        <v>0.05158730158730158</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.125</v>
+        <v>0.1221804511278195</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01694915254237288</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.173728813559322</v>
+        <v>0.1771653543307087</v>
       </c>
       <c r="I18">
-        <v>0.1144067796610169</v>
+        <v>0.1141732283464567</v>
       </c>
       <c r="J18">
-        <v>0.4279661016949153</v>
+        <v>0.4291338582677166</v>
       </c>
       <c r="K18">
-        <v>0.07627118644067797</v>
+        <v>0.07480314960629922</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01694915254237288</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05084745762711865</v>
+        <v>0.05118110236220472</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1228813559322034</v>
+        <v>0.1220472440944882</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01535974130962005</v>
+        <v>0.01589704769114307</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2101859337105901</v>
+        <v>0.2096896290688872</v>
       </c>
       <c r="I19">
-        <v>0.07518189167340339</v>
+        <v>0.07191521574564724</v>
       </c>
       <c r="J19">
-        <v>0.3848019401778496</v>
+        <v>0.3875851627554883</v>
       </c>
       <c r="K19">
-        <v>0.09377526273241714</v>
+        <v>0.09008327024981075</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02021018593371059</v>
+        <v>0.02195306585919758</v>
       </c>
       <c r="N19">
-        <v>0.0008084074373484236</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="O19">
-        <v>0.08407437348423606</v>
+        <v>0.08629825889477669</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1156022635408246</v>
+        <v>0.1158213474640424</v>
       </c>
     </row>
   </sheetData>
